--- a/data_quarter/zb/工业/主要工业产品的销售与库存/移动通信手持机(手机).xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/移动通信手持机(手机).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,45 +454,67 @@
           <t>移动通信手持机(手机)销售量_累计值</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>移动通信手持机(手机)产销率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>移动通信手持机(手机)销售量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="C2" t="n">
-        <v>68.3</v>
+        <v>76.2</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>17859.8</v>
+        <v>11801.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11801.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>76.2</v>
+        <v>68.3</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>11801.7</v>
+        <v>17859.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.100000000000009</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6058.099999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -505,11 +527,17 @@
       <c r="E4" t="n">
         <v>24220.5</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6360.700000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,45 +550,63 @@
       <c r="E5" t="n">
         <v>6220.2</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6220.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.7</v>
+        <v>100.6</v>
       </c>
       <c r="C6" t="n">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>22200.9</v>
+        <v>13950.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8999999999999915</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7730.599999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.6</v>
+        <v>99.7</v>
       </c>
       <c r="C7" t="n">
-        <v>1.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>13950.8</v>
+        <v>22200.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8250.100000000002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -573,11 +619,17 @@
       <c r="E8" t="n">
         <v>32362.7</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10161.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -590,45 +642,63 @@
       <c r="E9" t="n">
         <v>9851.5</v>
       </c>
+      <c r="F9" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9851.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>30.4</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>34554.5</v>
+        <v>21856</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.599999999999994</v>
+      </c>
+      <c r="G10" t="n">
+        <v>12004.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4</v>
+        <v>19</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>21856</v>
+        <v>34554.5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12698.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -641,11 +711,17 @@
       <c r="E12" t="n">
         <v>51047.7</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16493.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -658,45 +734,63 @@
       <c r="E13" t="n">
         <v>13829</v>
       </c>
+      <c r="F13" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13829</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="C14" t="n">
-        <v>53.3</v>
+        <v>19.4</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>42275</v>
+        <v>28479.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14650.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="C15" t="n">
-        <v>19.4</v>
+        <v>53.3</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>28479.9</v>
+        <v>42275</v>
+      </c>
+      <c r="F15" t="n">
+        <v>99</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13795.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -709,11 +803,17 @@
       <c r="E16" t="n">
         <v>59755.3</v>
       </c>
+      <c r="F16" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17480.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -726,45 +826,63 @@
       <c r="E17" t="n">
         <v>14920.8</v>
       </c>
+      <c r="F17" t="n">
+        <v>4.299999999999997</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14920.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="C18" t="n">
-        <v>14.8</v>
+        <v>30</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>42249.9</v>
+        <v>28929.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>98</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14008.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>14.8</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>28929.6</v>
+        <v>42249.9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13320.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -777,11 +895,17 @@
       <c r="E20" t="n">
         <v>55602.9</v>
       </c>
+      <c r="F20" t="n">
+        <v>1.399999999999991</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13353</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -794,45 +918,63 @@
       <c r="E21" t="n">
         <v>12636</v>
       </c>
+      <c r="F21" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12636</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>20.8</v>
+        <v>-0.5</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>42872.4</v>
+        <v>26769.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14133.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5</v>
+        <v>20.8</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>26769.6</v>
+        <v>42872.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16102.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -845,11 +987,17 @@
       <c r="E24" t="n">
         <v>61461.1</v>
       </c>
+      <c r="F24" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>18588.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -862,45 +1010,63 @@
       <c r="E25" t="n">
         <v>17829</v>
       </c>
+      <c r="F25" t="n">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="G25" t="n">
+        <v>17829</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C26" t="n">
-        <v>8.699999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>68953.89999999999</v>
+        <v>36968.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>19139.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>36968.3</v>
+        <v>68953.89999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G27" t="n">
+        <v>31985.59999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -913,11 +1079,17 @@
       <c r="E28" t="n">
         <v>99969.39999999999</v>
       </c>
+      <c r="F28" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>31015.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -930,45 +1102,63 @@
       <c r="E29" t="n">
         <v>25221.2</v>
       </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>25221.2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.3</v>
+        <v>100.7</v>
       </c>
       <c r="C30" t="n">
-        <v>32.4</v>
+        <v>-21.6</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>80391.8</v>
+        <v>50644.6</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="G30" t="n">
+        <v>25423.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.7</v>
+        <v>99.3</v>
       </c>
       <c r="C31" t="n">
-        <v>-21.6</v>
+        <v>32.4</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>50644.6</v>
+        <v>80391.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>29747.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -981,11 +1171,17 @@
       <c r="E32" t="n">
         <v>114394.4</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="G32" t="n">
+        <v>34002.59999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -998,45 +1194,63 @@
       <c r="E33" t="n">
         <v>25511.5</v>
       </c>
+      <c r="F33" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>25511.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>10.1</v>
+        <v>-4.1</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>81079.3</v>
+        <v>53192</v>
+      </c>
+      <c r="F34" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G34" t="n">
+        <v>27680.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C35" t="n">
-        <v>-4.1</v>
+        <v>10.1</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>53192</v>
+        <v>81079.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>27887.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1049,11 +1263,17 @@
       <c r="E36" t="n">
         <v>116760.9</v>
       </c>
+      <c r="F36" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>35681.59999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1068,49 +1288,67 @@
       <c r="E37" t="n">
         <v>44803.59954</v>
       </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>44803.59954</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>94.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.7</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.5</v>
+        <v>-3.8</v>
       </c>
       <c r="E38" t="n">
-        <v>143293.41058</v>
+        <v>92349.29945000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="G38" t="n">
+        <v>47545.69991</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>95.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>-8.800000000000001</v>
+        <v>-2.7</v>
       </c>
       <c r="D39" t="n">
-        <v>-3.8</v>
+        <v>-1.5</v>
       </c>
       <c r="E39" t="n">
-        <v>92349.29945000001</v>
+        <v>143293.41058</v>
+      </c>
+      <c r="F39" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>50944.11112999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1125,11 +1363,17 @@
       <c r="E40" t="n">
         <v>205189.9138</v>
       </c>
+      <c r="F40" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>61896.50322000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1144,49 +1388,67 @@
       <c r="E41" t="n">
         <v>48768.12252</v>
       </c>
+      <c r="F41" t="n">
+        <v>10.59999999999999</v>
+      </c>
+      <c r="G41" t="n">
+        <v>48768.12252</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>6.1</v>
+        <v>-5.9</v>
       </c>
       <c r="D42" t="n">
-        <v>-3.7</v>
+        <v>-1.9</v>
       </c>
       <c r="E42" t="n">
-        <v>140806.9004</v>
+        <v>92034.86215</v>
+      </c>
+      <c r="F42" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>43266.73963</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-5.9</v>
+        <v>6.1</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.9</v>
+        <v>-3.7</v>
       </c>
       <c r="E43" t="n">
-        <v>92034.86215</v>
+        <v>140806.9004</v>
+      </c>
+      <c r="F43" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>48772.03825000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1201,11 +1463,17 @@
       <c r="E44" t="n">
         <v>192056.4017</v>
       </c>
+      <c r="F44" t="n">
+        <v>2.600000000000009</v>
+      </c>
+      <c r="G44" t="n">
+        <v>51249.50129999997</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1220,49 +1488,67 @@
       <c r="E45" t="n">
         <v>41824.55029</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.8999999999999915</v>
+      </c>
+      <c r="G45" t="n">
+        <v>41824.55029</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="C46" t="n">
-        <v>11.4</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="E46" t="n">
-        <v>126143.20468</v>
+        <v>85017.0811</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>43192.53081</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>-8.199999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="D47" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="E47" t="n">
-        <v>85017.0811</v>
+        <v>126143.20468</v>
+      </c>
+      <c r="F47" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G47" t="n">
+        <v>41126.12358</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1277,11 +1563,17 @@
       <c r="E48" t="n">
         <v>181247.7128</v>
       </c>
+      <c r="F48" t="n">
+        <v>1.099999999999994</v>
+      </c>
+      <c r="G48" t="n">
+        <v>55104.50812000001</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1296,49 +1588,67 @@
       <c r="E49" t="n">
         <v>37052.4831</v>
       </c>
+      <c r="F49" t="n">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="G49" t="n">
+        <v>37052.4831</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="C50" t="n">
-        <v>7.6</v>
+        <v>-0.1</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="E50" t="n">
-        <v>125095.39355</v>
+        <v>80862.7289</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>43810.2458</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.1</v>
+        <v>7.6</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="E51" t="n">
-        <v>80862.7289</v>
+        <v>125095.39355</v>
+      </c>
+      <c r="F51" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>44232.66464999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1352,6 +1662,12 @@
       </c>
       <c r="E52" t="n">
         <v>166514.81458</v>
+      </c>
+      <c r="F52" t="n">
+        <v>98.053524548</v>
+      </c>
+      <c r="G52" t="n">
+        <v>41419.42103000001</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/工业/主要工业产品的销售与库存/移动通信手持机(手机).xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/移动通信手持机(手机).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,61 +454,39 @@
           <t>移动通信手持机(手机)销售量_累计值</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>移动通信手持机(手机)产销率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>移动通信手持机(手机)销售量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>76.2</v>
+        <v>68.3</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>11801.7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="G2" t="n">
-        <v>11801.7</v>
+        <v>17859.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="C3" t="n">
-        <v>68.3</v>
+        <v>76.2</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>17859.8</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6058.099999999999</v>
+        <v>11801.7</v>
       </c>
     </row>
     <row r="4">
@@ -527,12 +505,6 @@
       <c r="E4" t="n">
         <v>24220.5</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6360.700000000001</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -550,57 +522,39 @@
       <c r="E5" t="n">
         <v>6220.2</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6220.2</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.6</v>
+        <v>99.7</v>
       </c>
       <c r="C6" t="n">
-        <v>1.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>13950.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8999999999999915</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7730.599999999999</v>
+        <v>22200.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.7</v>
+        <v>100.6</v>
       </c>
       <c r="C7" t="n">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>22200.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G7" t="n">
-        <v>8250.100000000002</v>
+        <v>13950.8</v>
       </c>
     </row>
     <row r="8">
@@ -619,12 +573,6 @@
       <c r="E8" t="n">
         <v>32362.7</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>10161.8</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -642,57 +590,39 @@
       <c r="E9" t="n">
         <v>9851.5</v>
       </c>
-      <c r="F9" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9851.5</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="C10" t="n">
-        <v>30.4</v>
+        <v>19</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>21856</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.599999999999994</v>
-      </c>
-      <c r="G10" t="n">
-        <v>12004.5</v>
+        <v>34554.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>30.4</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>34554.5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12698.5</v>
+        <v>21856</v>
       </c>
     </row>
     <row r="12">
@@ -711,12 +641,6 @@
       <c r="E12" t="n">
         <v>51047.7</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16493.2</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -734,57 +658,39 @@
       <c r="E13" t="n">
         <v>13829</v>
       </c>
-      <c r="F13" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13829</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="C14" t="n">
-        <v>19.4</v>
+        <v>53.3</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>28479.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14650.9</v>
+        <v>42275</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="C15" t="n">
-        <v>53.3</v>
+        <v>19.4</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>42275</v>
-      </c>
-      <c r="F15" t="n">
-        <v>99</v>
-      </c>
-      <c r="G15" t="n">
-        <v>13795.1</v>
+        <v>28479.9</v>
       </c>
     </row>
     <row r="16">
@@ -803,12 +709,6 @@
       <c r="E16" t="n">
         <v>59755.3</v>
       </c>
-      <c r="F16" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>17480.3</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -826,57 +726,39 @@
       <c r="E17" t="n">
         <v>14920.8</v>
       </c>
-      <c r="F17" t="n">
-        <v>4.299999999999997</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14920.8</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>14.8</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>28929.6</v>
-      </c>
-      <c r="F18" t="n">
-        <v>98</v>
-      </c>
-      <c r="G18" t="n">
-        <v>14008.8</v>
+        <v>42249.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="C19" t="n">
-        <v>14.8</v>
+        <v>30</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>42249.9</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="G19" t="n">
-        <v>13320.3</v>
+        <v>28929.6</v>
       </c>
     </row>
     <row r="20">
@@ -895,12 +777,6 @@
       <c r="E20" t="n">
         <v>55602.9</v>
       </c>
-      <c r="F20" t="n">
-        <v>1.399999999999991</v>
-      </c>
-      <c r="G20" t="n">
-        <v>13353</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -918,57 +794,39 @@
       <c r="E21" t="n">
         <v>12636</v>
       </c>
-      <c r="F21" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12636</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5</v>
+        <v>20.8</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>26769.6</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>14133.6</v>
+        <v>42872.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>20.8</v>
+        <v>-0.5</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>42872.4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G23" t="n">
-        <v>16102.8</v>
+        <v>26769.6</v>
       </c>
     </row>
     <row r="24">
@@ -987,12 +845,6 @@
       <c r="E24" t="n">
         <v>61461.1</v>
       </c>
-      <c r="F24" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G24" t="n">
-        <v>18588.7</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1010,57 +862,39 @@
       <c r="E25" t="n">
         <v>17829</v>
       </c>
-      <c r="F25" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="G25" t="n">
-        <v>17829</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>36968.3</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19139.3</v>
+        <v>68953.89999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C27" t="n">
-        <v>8.699999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>68953.89999999999</v>
-      </c>
-      <c r="F27" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="G27" t="n">
-        <v>31985.59999999999</v>
+        <v>36968.3</v>
       </c>
     </row>
     <row r="28">
@@ -1079,12 +913,6 @@
       <c r="E28" t="n">
         <v>99969.39999999999</v>
       </c>
-      <c r="F28" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>31015.5</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1102,57 +930,39 @@
       <c r="E29" t="n">
         <v>25221.2</v>
       </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>25221.2</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.7</v>
+        <v>99.3</v>
       </c>
       <c r="C30" t="n">
-        <v>-21.6</v>
+        <v>32.4</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>50644.6</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="G30" t="n">
-        <v>25423.4</v>
+        <v>80391.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.3</v>
+        <v>100.7</v>
       </c>
       <c r="C31" t="n">
-        <v>32.4</v>
+        <v>-21.6</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>80391.8</v>
-      </c>
-      <c r="F31" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="G31" t="n">
-        <v>29747.2</v>
+        <v>50644.6</v>
       </c>
     </row>
     <row r="32">
@@ -1171,12 +981,6 @@
       <c r="E32" t="n">
         <v>114394.4</v>
       </c>
-      <c r="F32" t="n">
-        <v>0.9000000000000057</v>
-      </c>
-      <c r="G32" t="n">
-        <v>34002.59999999999</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1194,57 +998,39 @@
       <c r="E33" t="n">
         <v>25511.5</v>
       </c>
-      <c r="F33" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="G33" t="n">
-        <v>25511.5</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.1</v>
+        <v>10.1</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>53192</v>
-      </c>
-      <c r="F34" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G34" t="n">
-        <v>27680.5</v>
+        <v>81079.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>10.1</v>
+        <v>-4.1</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>81079.3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="G35" t="n">
-        <v>27887.3</v>
+        <v>53192</v>
       </c>
     </row>
     <row r="36">
@@ -1263,12 +1049,6 @@
       <c r="E36" t="n">
         <v>116760.9</v>
       </c>
-      <c r="F36" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G36" t="n">
-        <v>35681.59999999999</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1288,61 +1068,43 @@
       <c r="E37" t="n">
         <v>44803.59954</v>
       </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" t="n">
-        <v>44803.59954</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>95.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>-8.800000000000001</v>
+        <v>-2.7</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.8</v>
+        <v>-1.5</v>
       </c>
       <c r="E38" t="n">
-        <v>92349.29945000001</v>
-      </c>
-      <c r="F38" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="G38" t="n">
-        <v>47545.69991</v>
+        <v>143293.41058</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>94.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.7</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.5</v>
+        <v>-3.8</v>
       </c>
       <c r="E39" t="n">
-        <v>143293.41058</v>
-      </c>
-      <c r="F39" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="G39" t="n">
-        <v>50944.11112999999</v>
+        <v>92349.29945000001</v>
       </c>
     </row>
     <row r="40">
@@ -1363,12 +1125,6 @@
       <c r="E40" t="n">
         <v>205189.9138</v>
       </c>
-      <c r="F40" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="G40" t="n">
-        <v>61896.50322000001</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1388,61 +1144,43 @@
       <c r="E41" t="n">
         <v>48768.12252</v>
       </c>
-      <c r="F41" t="n">
-        <v>10.59999999999999</v>
-      </c>
-      <c r="G41" t="n">
-        <v>48768.12252</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>-5.9</v>
+        <v>6.1</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.9</v>
+        <v>-3.7</v>
       </c>
       <c r="E42" t="n">
-        <v>92034.86215</v>
-      </c>
-      <c r="F42" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G42" t="n">
-        <v>43266.73963</v>
+        <v>140806.9004</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>6.1</v>
+        <v>-5.9</v>
       </c>
       <c r="D43" t="n">
-        <v>-3.7</v>
+        <v>-1.9</v>
       </c>
       <c r="E43" t="n">
-        <v>140806.9004</v>
-      </c>
-      <c r="F43" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="G43" t="n">
-        <v>48772.03825000001</v>
+        <v>92034.86215</v>
       </c>
     </row>
     <row r="44">
@@ -1463,12 +1201,6 @@
       <c r="E44" t="n">
         <v>192056.4017</v>
       </c>
-      <c r="F44" t="n">
-        <v>2.600000000000009</v>
-      </c>
-      <c r="G44" t="n">
-        <v>51249.50129999997</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1488,61 +1220,43 @@
       <c r="E45" t="n">
         <v>41824.55029</v>
       </c>
-      <c r="F45" t="n">
-        <v>0.8999999999999915</v>
-      </c>
-      <c r="G45" t="n">
-        <v>41824.55029</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>-8.199999999999999</v>
+        <v>11.4</v>
       </c>
       <c r="D46" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="E46" t="n">
-        <v>85017.0811</v>
-      </c>
-      <c r="F46" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G46" t="n">
-        <v>43192.53081</v>
+        <v>126143.20468</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="C47" t="n">
-        <v>11.4</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="E47" t="n">
-        <v>126143.20468</v>
-      </c>
-      <c r="F47" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G47" t="n">
-        <v>41126.12358</v>
+        <v>85017.0811</v>
       </c>
     </row>
     <row r="48">
@@ -1563,12 +1277,6 @@
       <c r="E48" t="n">
         <v>181247.7128</v>
       </c>
-      <c r="F48" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="G48" t="n">
-        <v>55104.50812000001</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1588,61 +1296,43 @@
       <c r="E49" t="n">
         <v>37052.4831</v>
       </c>
-      <c r="F49" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="G49" t="n">
-        <v>37052.4831</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.1</v>
+        <v>7.6</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="E50" t="n">
-        <v>80862.7289</v>
-      </c>
-      <c r="F50" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>43810.2458</v>
+        <v>125095.39355</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="C51" t="n">
-        <v>7.6</v>
+        <v>-0.1</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="E51" t="n">
-        <v>125095.39355</v>
-      </c>
-      <c r="F51" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="G51" t="n">
-        <v>44232.66464999999</v>
+        <v>80862.7289</v>
       </c>
     </row>
     <row r="52">
@@ -1662,12 +1352,6 @@
       </c>
       <c r="E52" t="n">
         <v>166514.81458</v>
-      </c>
-      <c r="F52" t="n">
-        <v>98.053524548</v>
-      </c>
-      <c r="G52" t="n">
-        <v>41419.42103000001</v>
       </c>
     </row>
   </sheetData>
